--- a/Regression/regression_results_table.xlsx
+++ b/Regression/regression_results_table.xlsx
@@ -1,43 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\thesis\Regression\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913D29FC-9D83-4B0D-8C95-B5825B89F867}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021" calcMode="manual"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Std. Error</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>education_high</t>
+  </si>
+  <si>
+    <t>income_medium</t>
+  </si>
+  <si>
+    <t>income_high</t>
+  </si>
+  <si>
+    <t>fin_literacy</t>
+  </si>
+  <si>
+    <t>invest_confidence</t>
+  </si>
+  <si>
+    <t>long_outlook_diff</t>
+  </si>
+  <si>
+    <t>Significance</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>T-Statistic</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +124,184 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,218 +589,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Coefficient</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Std. Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>t-Statistic</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p-Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>const</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>51.46293665394333</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20.38325089740068</v>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>51.462936653943331</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20.383250897400679</v>
+      </c>
+      <c r="D2" s="4">
         <v>2.524765892986482</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.01360682516517804</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.9137594544684053</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="E2" s="8">
+        <v>1.3606825165178041E-2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-0.91375945446840534</v>
+      </c>
+      <c r="C3" s="4">
         <v>0.4381057521790378</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4">
         <v>-2.08570522053996</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.04027497121975374</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-13.02358180023563</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.764882017819605</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-2.259123735746705</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02666773804598547</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>education_high</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-16.43464517444938</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12.30569708291667</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-1.335531426111951</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1855866895589814</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>income_medium</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="E3" s="8">
+        <v>4.0274971219753743E-2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-13.023581800235631</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5.7648820178196054</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-2.2591237357467051</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2.6667738045985469E-2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-16.434645174449379</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12.305697082916669</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-1.3355314261119511</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.18558668955898139</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
         <v>20.38747173093634</v>
       </c>
-      <c r="C6" t="n">
-        <v>6.993446803224036</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.915225110676119</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.004637713225708949</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>income_high</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>37.84611779555948</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.934085159681105</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.809723511246241</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0002759529034175364</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>fin_literacy</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.7178710429675557</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.516843668028527</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.2852267115700008</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.7762264648542536</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>invest_confidence</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.598668673353779</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.962667404554154</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.324049437680502</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.189353696897319</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>long_outlook_diff</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2.905192384433322</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="C6" s="4">
+        <v>6.9934468032240362</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.9152251106761189</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.6377132257089488E-3</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>37.846117795559479</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9.9340851596811053</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.8097235112462409</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.7595290341753641E-4</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-0.71787104296755566</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.5168436680285269</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-0.28522671157000079</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.77622646485425362</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.5986686733537789</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.9626674045541539</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3240494376805021</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.18935369689731901</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-2.9051923844333221</v>
+      </c>
+      <c r="C10" s="6">
         <v>1.496039721735539</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="6">
         <v>-1.941921957167714</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.05575710040302956</v>
-      </c>
-    </row>
+      <c r="E10" s="9">
+        <v>5.5757100403029558E-2</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>